--- a/template.xlsx
+++ b/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Dokumenter\DTU\Vektor\klub-100-maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GitHub\klub-100-maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_591709D42176006F169D72899198FA215DA14BF1" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{71AB04B5-3B7C-4B6E-B28E-7C3218429B3C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE6C43E-16CD-4FF2-9503-4E304F54C6ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,20 @@
     <sheet name="Sange" sheetId="1" r:id="rId1"/>
     <sheet name="Shoutouts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>Sang - Kunstner</t>
   </si>
@@ -35,6 +43,9 @@
     <t>Shoutout</t>
   </si>
   <si>
+    <t>behold placering</t>
+  </si>
+  <si>
     <t>kommentar</t>
   </si>
   <si>
@@ -42,13 +53,187 @@
   </si>
   <si>
     <t>sluttidspunkt (i sek)</t>
+  </si>
+  <si>
+    <t>Disney Sjov  Intro</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Bfp4zusaQ5g</t>
+  </si>
+  <si>
+    <t>Nøjjj, det for børn</t>
+  </si>
+  <si>
+    <t>Phineas og Ferb intro sang</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Jr16acS174Y</t>
+  </si>
+  <si>
+    <t>Vi er tilbage - B-Boys</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o-x1JyU-iL4</t>
+  </si>
+  <si>
+    <t>Du er den som jeg vil ha - Emma</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jEdSPrz8A5Y</t>
+  </si>
+  <si>
+    <t>Morten Skikdpadde</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GcFF5k5F9zQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nisse Kalypso - Nissebanden </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gOa7fagiQj4</t>
+  </si>
+  <si>
+    <t>Gitchee Gitchee Goo - Phineas and Ferb</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QL0me7ENQRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeg er på vej - Bjørne brødre </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wTCO5tZ7zZ8</t>
+  </si>
+  <si>
+    <t>Circle of life (Trap remix) - Unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hwwg8st_5W4</t>
+  </si>
+  <si>
+    <t>Call Me, Beep Me! (The Kim Possible Song)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GYIzCcCJNlQ</t>
+  </si>
+  <si>
+    <t>Lokes rapsodi - Loke</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MU_FmphZ4xA</t>
+  </si>
+  <si>
+    <t>Min egen Maria - Chanlex</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NObY2YeJ7Oc</t>
+  </si>
+  <si>
+    <t>Hulubulu Lotte hvor er du henne (pitched down) - unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ue4PHfMWKzA</t>
+  </si>
+  <si>
+    <t>Oggy og karkelakerne</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YBdekGSC68A</t>
+  </si>
+  <si>
+    <t>Alle ved man må have våben</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zrENu91GP1Y</t>
+  </si>
+  <si>
+    <t>Av min ryg, jeg er så gammel</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4Z5f25b48ng</t>
+  </si>
+  <si>
+    <t>Bamse tager dig på røven</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Fz8LqjaNCyI</t>
+  </si>
+  <si>
+    <t>Coming soon to Disney dvd</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Td8t_ZELZXU</t>
+  </si>
+  <si>
+    <t>De ville savne mig meget mere</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1TnftK66cOE</t>
+  </si>
+  <si>
+    <t>Den smager meget godt</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Zt72bsGazww</t>
+  </si>
+  <si>
+    <t>Denne her er god og tyk</t>
+  </si>
+  <si>
+    <t>https://www.dr.dk/drtv/se/bamses-billedbog_-laver-baal_129427</t>
+  </si>
+  <si>
+    <t>Det koster penge at nyde nuet</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FzYJNAH_GW8</t>
+  </si>
+  <si>
+    <t>Nøøj, det for børn</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ceyiktp5eJ4</t>
+  </si>
+  <si>
+    <t>Det totalt taken</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qUp0eZlIMj8</t>
+  </si>
+  <si>
+    <t>Du kan ik noget ælling, gå hjem</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=58uv-e3IP2s</t>
+  </si>
+  <si>
+    <t>Du kunne have set dig for</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ftzn_aOVrLM</t>
+  </si>
+  <si>
+    <t>Er du pip gok påske-plim?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9YiywIPxtIM</t>
+  </si>
+  <si>
+    <t>Esbjerg har Sild</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=c1rXyw__1tU</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,13 +249,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor rgb="FFF9F9F9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -97,16 +325,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,16 +687,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="3" max="3" width="15.17578125" customWidth="1"/>
+    <col min="1" max="1" width="13.46875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.46875" customWidth="1"/>
+    <col min="3" max="3" width="20.29296875" customWidth="1"/>
+    <col min="4" max="4" width="22.76171875" customWidth="1"/>
+    <col min="5" max="5" width="15.8203125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,23 +719,217 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8FB348DD-9BBB-4FD5-94B7-4F84EDD458A7}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{22301DFE-D65C-427C-8F08-0B4AED0D4229}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{92720BCA-C59F-4008-9F6C-D75D2E53355C}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{9C65A7C2-8A50-4D72-94A1-1A7A66FAE4E0}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{F01F49BB-3133-42AF-8BE3-DDCA49D5DEE9}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{C373125D-17D6-4706-A0A6-ECEF34C04FE7}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{C9CEE98E-F802-42BE-8459-E27D8D4CB7F0}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{932E4B1C-693E-4A92-8B6A-8183F5EB47F3}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{781CFBB0-450E-40C5-BB00-44B66F05915D}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{8CAB6DD2-25D8-4338-8E73-3389A954A97A}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{E5225D18-A5AD-4E02-BF55-CD01691646EA}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{F43540E6-031C-4565-AAC5-58D7620EF606}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{993E5DFC-8A28-484E-AFC3-272E3EB23B6B}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{A31B2B3F-F224-4EF3-B9A8-3C4A6094F39C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="25.703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5859375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.46875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.64453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.29296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -493,13 +938,227 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2">
+        <v>266</v>
+      </c>
+      <c r="D2" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2">
+        <f>3*60+44</f>
+        <v>224</v>
+      </c>
+      <c r="D3" s="2">
+        <f>3*60+50</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2">
+        <f>9*60+55</f>
+        <v>595</v>
+      </c>
+      <c r="D6" s="2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <f>9*60+21</f>
+        <v>561</v>
+      </c>
+      <c r="D8" s="2">
+        <f>C8+12</f>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2">
+        <f>13*60+55</f>
+        <v>835</v>
+      </c>
+      <c r="D9" s="2">
+        <f>14*60+11</f>
+        <v>851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2">
+        <f>13*60+24</f>
+        <v>804</v>
+      </c>
+      <c r="D11" s="2">
+        <f>13*60+35</f>
+        <v>815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="2">
+        <f>2*60+29</f>
+        <v>149</v>
+      </c>
+      <c r="D12" s="2">
+        <f>2*60+33</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2">
+        <v>185</v>
+      </c>
+      <c r="D15" s="2">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{524DD65C-FF62-448F-BF54-385DD04DDCEB}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{55FB44FF-2DBA-4235-9481-4EC6C9235242}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{E83D0E50-014E-4360-8549-FE7D4E6FA1DD}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{86EC6E84-F47F-4BC3-A418-1E10CE29D264}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{ADCD79BA-0F40-40E0-8F13-58B6B38B614C}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{758E7890-D9D8-44A9-9D42-7EEE7DB6EF2F}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{F564E238-6C3E-4AAE-A338-3BAF8F43E5DD}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{C10B98B9-9BCB-42D6-9BC0-0FA73576F61A}"/>
+    <hyperlink ref="B15" r:id="rId9" xr:uid="{05907D3C-EB4B-4546-9E67-8DEEAF621F2E}"/>
+    <hyperlink ref="B4" r:id="rId10" xr:uid="{E04030F1-B8D6-4CCD-9CB7-7F44124F2144}"/>
+    <hyperlink ref="B2" r:id="rId11" xr:uid="{6F52DABE-B9C3-4591-BA5C-EC1EA07F60AE}"/>
+    <hyperlink ref="B10" r:id="rId12" xr:uid="{E5A34D1E-BC07-445E-8C28-D2041E9AC5CE}"/>
+    <hyperlink ref="B5" r:id="rId13" xr:uid="{1B6B46A9-14D4-429E-8ABC-9CA67774D517}"/>
+    <hyperlink ref="B8" r:id="rId14" xr:uid="{5ECA31F4-4F69-4204-9C79-54786277D9E1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GitHub\klub-100-maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE6C43E-16CD-4FF2-9503-4E304F54C6ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41D08A3-F7B4-4662-85F0-68F8FC48F86F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sange" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Sang - Kunstner</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Bfp4zusaQ5g</t>
-  </si>
-  <si>
-    <t>Nøjjj, det for børn</t>
   </si>
   <si>
     <t>Phineas og Ferb intro sang</t>
@@ -690,7 +687,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -734,18 +731,18 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -753,10 +750,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>25</v>
@@ -764,10 +761,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>50</v>
@@ -775,10 +772,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -786,10 +783,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>20</v>
@@ -797,10 +794,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -808,10 +805,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -819,10 +816,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -830,24 +827,24 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="C12" s="2">
         <v>55</v>
@@ -855,10 +852,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C13" s="2">
         <v>43</v>
@@ -866,10 +863,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C14" s="2">
         <v>40</v>
@@ -877,16 +874,16 @@
     </row>
     <row r="15" spans="1:6" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -915,7 +912,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -946,10 +943,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>266</v>
@@ -960,10 +957,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="C3" s="2">
         <f>3*60+44</f>
@@ -976,10 +973,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C4" s="2">
         <v>57</v>
@@ -990,10 +987,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C5" s="2">
         <v>31</v>
@@ -1001,10 +998,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C6" s="2">
         <f>9*60+55</f>
@@ -1016,10 +1013,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C7" s="2">
         <v>42</v>
@@ -1030,10 +1027,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C8" s="2">
         <f>9*60+21</f>
@@ -1046,10 +1043,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="C9" s="2">
         <f>13*60+55</f>
@@ -1062,10 +1059,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="C10" s="2">
         <v>20</v>
@@ -1076,10 +1073,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="C11" s="2">
         <f>13*60+24</f>
@@ -1092,10 +1089,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="C12" s="2">
         <f>2*60+29</f>
@@ -1108,10 +1105,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="C13" s="2">
         <v>175</v>
@@ -1119,10 +1116,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -1130,10 +1127,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="C15" s="2">
         <v>185</v>
